--- a/Team-Data/2013-14/12-25-2013-14.xlsx
+++ b/Team-Data/2013-14/12-25-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>9</v>
@@ -804,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -956,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -986,7 +1053,7 @@
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -1030,85 +1097,85 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.321</v>
+        <v>0.333</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.8</v>
+        <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.444</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M4" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P4" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S4" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T4" t="n">
         <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.5</v>
+        <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA4" t="n">
         <v>21.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.4</v>
+        <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1129,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>18</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1147,22 +1214,22 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
@@ -1311,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>30</v>
@@ -1365,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.407</v>
+        <v>0.385</v>
       </c>
       <c r="H6" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J6" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="L6" t="n">
         <v>5.6</v>
@@ -1424,19 +1491,19 @@
         <v>16.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O6" t="n">
         <v>17.7</v>
       </c>
       <c r="P6" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.771</v>
+        <v>0.767</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S6" t="n">
         <v>33</v>
@@ -1445,46 +1512,46 @@
         <v>45.3</v>
       </c>
       <c r="U6" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V6" t="n">
         <v>16.3</v>
       </c>
       <c r="W6" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.8</v>
+        <v>-1.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE6" t="n">
         <v>22</v>
       </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1493,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
@@ -1523,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
         <v>27</v>
@@ -1538,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE7" t="n">
         <v>22</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>22</v>
@@ -1666,7 +1733,7 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>24</v>
@@ -1675,7 +1742,7 @@
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>21</v>
@@ -1693,7 +1760,7 @@
         <v>22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
         <v>8</v>
@@ -1714,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY7" t="n">
         <v>22</v>
@@ -1723,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>17</v>
@@ -1896,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1905,7 +1972,7 @@
         <v>11</v>
       </c>
       <c r="BA8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
@@ -2048,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2087,7 +2154,7 @@
         <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -2206,16 +2273,16 @@
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>5</v>
@@ -2227,7 +2294,7 @@
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2251,10 +2318,10 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>4</v>
@@ -2263,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
         <v>13</v>
@@ -2275,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.552</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J11" t="n">
-        <v>83.8</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L11" t="n">
         <v>9.5</v>
@@ -2337,28 +2404,28 @@
         <v>0.403</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
         <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R11" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S11" t="n">
         <v>34.8</v>
       </c>
       <c r="T11" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="U11" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V11" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="W11" t="n">
         <v>7.7</v>
@@ -2367,25 +2434,25 @@
         <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC11" t="n">
         <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -2394,13 +2461,13 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
         <v>9</v>
@@ -2418,13 +2485,13 @@
         <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>24</v>
       </c>
       <c r="AR11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,7 +2500,7 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>28</v>
@@ -2445,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2457,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -2486,85 +2553,85 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>0.633</v>
+        <v>0.621</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
-        <v>79.09999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L12" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M12" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.358</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="P12" t="n">
-        <v>30.8</v>
+        <v>31.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
       </c>
       <c r="S12" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="T12" t="n">
-        <v>45.6</v>
+        <v>45.4</v>
       </c>
       <c r="U12" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V12" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.5</v>
+        <v>106.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2573,7 +2640,7 @@
         <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
@@ -2594,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2606,7 +2673,7 @@
         <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2615,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,16 +2691,16 @@
         <v>15</v>
       </c>
       <c r="AX12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
@@ -2776,7 +2843,7 @@
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
@@ -2788,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2806,10 +2873,10 @@
         <v>18</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="n">
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2871,34 +2938,34 @@
         <v>81.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M14" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.333</v>
+        <v>0.336</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R14" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="S14" t="n">
         <v>32.6</v>
       </c>
       <c r="T14" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
@@ -2907,28 +2974,28 @@
         <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA14" t="n">
         <v>24.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2976,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2985,10 +3052,10 @@
         <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -2997,7 +3064,7 @@
         <v>24</v>
       </c>
       <c r="BA14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -3032,94 +3099,94 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.448</v>
+        <v>0.464</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>84</v>
+        <v>84.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O15" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P15" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.732</v>
+        <v>0.739</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U15" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W15" t="n">
         <v>6.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC15" t="n">
         <v>-4</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
@@ -3128,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
         <v>22</v>
@@ -3137,19 +3204,19 @@
         <v>5</v>
       </c>
       <c r="AM15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN15" t="n">
         <v>10</v>
       </c>
       <c r="AO15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP15" t="n">
         <v>19</v>
       </c>
-      <c r="AP15" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>24</v>
@@ -3158,16 +3225,16 @@
         <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX15" t="n">
         <v>5</v>
@@ -3179,7 +3246,7 @@
         <v>14</v>
       </c>
       <c r="BA15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
@@ -3337,7 +3404,7 @@
         <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
@@ -3355,7 +3422,7 @@
         <v>28</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3367,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -3396,67 +3463,67 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.786</v>
+        <v>0.778</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J17" t="n">
-        <v>76.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.514</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O17" t="n">
-        <v>18.1</v>
+        <v>18.4</v>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.754</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
         <v>6.7</v>
       </c>
       <c r="S17" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T17" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="U17" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V17" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W17" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
         <v>2.7</v>
@@ -3465,28 +3532,28 @@
         <v>20.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.6</v>
+        <v>104.8</v>
       </c>
       <c r="AC17" t="n">
         <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>5</v>
@@ -3504,16 +3571,16 @@
         <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,22 +3595,22 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3683,13 +3750,13 @@
         <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
         <v>25</v>
@@ -3698,7 +3765,7 @@
         <v>6</v>
       </c>
       <c r="AR18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3707,13 +3774,13 @@
         <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV18" t="n">
         <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>2.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3850,7 +3917,7 @@
         <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>12</v>
@@ -3868,10 +3935,10 @@
         <v>7</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
@@ -4029,7 +4096,7 @@
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
         <v>5</v>
@@ -4044,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>27</v>
@@ -4080,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -4124,67 +4191,67 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>0.321</v>
+        <v>0.333</v>
       </c>
       <c r="H21" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I21" t="n">
         <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>83.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.43</v>
       </c>
       <c r="L21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M21" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O21" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="P21" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.769</v>
+        <v>0.774</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S21" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T21" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U21" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V21" t="n">
         <v>12.3</v>
       </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y21" t="n">
         <v>4</v>
@@ -4193,16 +4260,16 @@
         <v>22.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.9</v>
+        <v>-3</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
         <v>24</v>
@@ -4220,7 +4287,7 @@
         <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,7 +4308,7 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4253,7 +4320,7 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4262,22 +4329,22 @@
         <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY21" t="n">
         <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -4306,37 +4373,37 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.821</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J22" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.469</v>
+        <v>0.467</v>
       </c>
       <c r="L22" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.351</v>
+        <v>0.342</v>
       </c>
       <c r="O22" t="n">
         <v>21.4</v>
@@ -4345,61 +4412,61 @@
         <v>26</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.824</v>
+        <v>0.826</v>
       </c>
       <c r="R22" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S22" t="n">
         <v>36.1</v>
       </c>
       <c r="T22" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="U22" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
         <v>22.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.3</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4408,13 +4475,13 @@
         <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM22" t="n">
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4426,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4435,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>26</v>
@@ -4453,13 +4520,13 @@
         <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,7 +4645,7 @@
         <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
@@ -4605,7 +4672,7 @@
         <v>24</v>
       </c>
       <c r="AQ23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4626,7 +4693,7 @@
         <v>17</v>
       </c>
       <c r="AX23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY23" t="n">
         <v>24</v>
@@ -4635,7 +4702,7 @@
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>26</v>
@@ -4769,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -4814,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>3.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE25" t="n">
         <v>8</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH25" t="n">
         <v>23</v>
@@ -4972,7 +5039,7 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4987,13 +5054,13 @@
         <v>23</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
         <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>21</v>
@@ -5005,7 +5072,7 @@
         <v>7</v>
       </c>
       <c r="BC25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5139,13 +5206,13 @@
         <v>1</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
         <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
         <v>26</v>
@@ -5333,7 +5400,7 @@
         <v>8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5345,13 +5412,13 @@
         <v>22</v>
       </c>
       <c r="AU27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV27" t="n">
         <v>9</v>
       </c>
       <c r="AW27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -5398,94 +5465,94 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n">
         <v>22</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28" t="n">
-        <v>0.759</v>
+        <v>0.786</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="J28" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K28" t="n">
-        <v>0.484</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
         <v>20.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.402</v>
       </c>
       <c r="O28" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="P28" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="R28" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="U28" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="V28" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Z28" t="n">
         <v>17.6</v>
       </c>
-      <c r="Q28" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="R28" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="S28" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="U28" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="V28" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="AA28" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD28" t="n">
         <v>8</v>
       </c>
-      <c r="X28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6</v>
-      </c>
       <c r="AE28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF28" t="n">
         <v>4</v>
       </c>
-      <c r="AF28" t="n">
-        <v>5</v>
-      </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH28" t="n">
         <v>27</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5530,16 +5597,16 @@
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5551,7 +5618,7 @@
         <v>9</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5676,7 +5743,7 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>23</v>
@@ -5703,22 +5770,22 @@
         <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
         <v>29</v>
       </c>
       <c r="AV29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW29" t="n">
         <v>22</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
         <v>25</v>
@@ -5894,13 +5961,13 @@
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>23</v>
       </c>
       <c r="AX30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
@@ -5909,7 +5976,7 @@
         <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
@@ -6043,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL31" t="n">
         <v>8</v>
@@ -6061,10 +6128,10 @@
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
@@ -6082,13 +6149,13 @@
         <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-25-2013-14</t>
+          <t>2013-12-25</t>
         </is>
       </c>
     </row>
